--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table36.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table36.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E815F-52C4-D34C-BAA7-5842CCE71AAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEB3C2C-5489-0E46-B266-C03D2A5B83EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26080" yWindow="2760" windowWidth="25040" windowHeight="14500" xr2:uid="{726A7C4E-B083-144D-A86E-4E335E666319}"/>
+    <workbookView xWindow="16860" yWindow="3520" windowWidth="25040" windowHeight="14500" xr2:uid="{726A7C4E-B083-144D-A86E-4E335E666319}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Value</t>
   </si>
@@ -51,12 +51,6 @@
     <t>Petrale sole</t>
   </si>
   <si>
-    <t xml:space="preserve">Anehovv </t>
-  </si>
-  <si>
-    <t xml:space="preserve">White scabiss  </t>
-  </si>
-  <si>
     <t>Pacific herring</t>
   </si>
   <si>
@@ -81,15 +75,9 @@
     <t>Allother</t>
   </si>
   <si>
-    <t xml:space="preserve">•S dmon    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Albacore  </t>
   </si>
   <si>
-    <t xml:space="preserve">California ponipa’io    </t>
-  </si>
-  <si>
     <t>White scabiss</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>Jack mackerel</t>
   </si>
   <si>
-    <t xml:space="preserve">Crab —   — </t>
-  </si>
-  <si>
     <t>Santa Cruz</t>
   </si>
   <si>
@@ -133,6 +118,18 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Anchovy</t>
+  </si>
+  <si>
+    <t>White seabass</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>California pompano</t>
   </si>
 </sst>
 </file>
@@ -496,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A54FA0-36B5-7A48-B61B-7C083BF3B2F2}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,7 +521,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>1656307</v>
@@ -538,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>398706</v>
@@ -566,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>137789</v>
@@ -580,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>85874</v>
@@ -594,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>71614</v>
@@ -608,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>37456</v>
@@ -622,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
         <v>15897</v>
@@ -636,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
         <v>15171</v>
@@ -664,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>9149</v>
@@ -678,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>6081</v>
@@ -692,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>5048</v>
@@ -706,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <v>24618</v>
@@ -720,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>1068355</v>
@@ -731,7 +728,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3">
         <f>SUM(C4:C16)-C17</f>
@@ -747,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1">
         <v>250507</v>
@@ -761,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
         <v>101759</v>
@@ -775,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
         <v>50247</v>
@@ -789,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>19303</v>
@@ -803,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1">
         <v>17092</v>
@@ -817,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>11220</v>
@@ -831,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C25" s="1">
         <v>12290</v>
@@ -845,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1">
         <v>462418</v>
@@ -856,7 +853,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C27" s="3">
         <f>SUM(C19:C25)-C26</f>
@@ -869,10 +866,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <v>27907</v>
@@ -883,10 +880,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29" s="1">
         <v>25433</v>
@@ -897,7 +894,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -911,10 +908,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
         <v>11276</v>
@@ -925,10 +922,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
         <v>8451</v>
@@ -939,10 +936,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1">
         <v>8088</v>
@@ -953,10 +950,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1">
         <v>21835</v>
@@ -967,10 +964,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1">
         <v>125534</v>
@@ -981,7 +978,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
         <f>SUM(C28:C34)-C35</f>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table36.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table36.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEB3C2C-5489-0E46-B266-C03D2A5B83EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AA51FF-2FF9-744F-B25F-A39B00C7109D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16860" yWindow="3520" windowWidth="25040" windowHeight="14500" xr2:uid="{726A7C4E-B083-144D-A86E-4E335E666319}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>Value</t>
   </si>
@@ -493,14 +493,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A54FA0-36B5-7A48-B61B-7C083BF3B2F2}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -520,8 +519,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>1656307</v>
